--- a/xlsx/保加利亞_intext.xlsx
+++ b/xlsx/保加利亞_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="906">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="924">
   <si>
     <t>保加利亞</t>
   </si>
@@ -29,7 +29,7 @@
     <t>保加利亚国旗</t>
   </si>
   <si>
-    <t>政策_政策_美國_保加利亞</t>
+    <t>体育运动_体育运动_1936年夏季奥林匹克运动会_保加利亞</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%8A%A0%E5%88%A9%E4%BA%9A%E5%9B%BD%E5%BE%BD</t>
@@ -938,6 +938,18 @@
     <t>北大西洋公约组织</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%8A%A0%E5%88%A9%E4%BA%9E%E6%AD%BB%E5%88%91%E5%88%B6%E5%BA%A6</t>
+  </si>
+  <si>
+    <t>保加利亞死刑制度</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BB%A2%E9%99%A4%E6%AD%BB%E5%88%91</t>
+  </si>
+  <si>
+    <t>廢除死刑</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E6%8B%89%E6%88%88%E8%80%B6%E5%A4%AB%E6%A0%BC%E5%8B%92</t>
   </si>
   <si>
@@ -1508,10 +1520,34 @@
     <t>英国</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%B0%94%E5%85%B0%E5%85%B1%E5%92%8C%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>爱尔兰共和国</t>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%A0%BC%E5%85%B0</t>
+  </si>
+  <si>
+    <t>英格兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E6%A0%BC%E5%85%B0</t>
+  </si>
+  <si>
+    <t>苏格兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E7%88%BE%E5%A3%AB</t>
+  </si>
+  <si>
+    <t>威爾士</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%88%B1%E5%B0%94%E5%85%B0</t>
+  </si>
+  <si>
+    <t>北爱尔兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%B0%94%E5%85%B0</t>
+  </si>
+  <si>
+    <t>爱尔兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%85%B0%E7%8E%8B%E5%9B%BD</t>
@@ -1616,10 +1652,10 @@
     <t>东欧</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E4%BF%84</t>
-  </si>
-  <si>
-    <t>歐俄</t>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E8%81%94%E5%8A%A0%E7%9B%9F%E5%85%B1%E5%92%8C%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>苏联加盟共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BD%97%E6%96%AF</t>
@@ -1628,6 +1664,12 @@
     <t>俄罗斯</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E4%BF%84%E7%BE%85%E6%96%AF</t>
+  </si>
+  <si>
+    <t>歐洲俄羅斯</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BF%84%E7%BD%97%E6%96%AF</t>
   </si>
   <si>
@@ -1718,18 +1760,18 @@
     <t>義大利</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A2%B5%E8%92%82%E5%B2%A1</t>
+  </si>
+  <si>
+    <t>梵蒂岡</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%BA%A7</t>
   </si>
   <si>
     <t>聖座</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A2%B5%E8%92%82%E5%B2%A1</t>
-  </si>
-  <si>
-    <t>梵蒂岡</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E9%A9%AC%E5%8A%9B%E8%AF%BA</t>
   </si>
   <si>
@@ -1754,10 +1796,10 @@
     <t>安道尔</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B1%AC%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>屬地</t>
+    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%A4%96%E5%B1%9E%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>海外属地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E5%B8%83%E7%BD%97%E9%99%80</t>
@@ -1808,16 +1850,22 @@
     <t>馬爾他騎士團</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>西哈萨克斯坦州</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6</t>
   </si>
   <si>
     <t>哈萨克斯坦</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>西哈萨克斯坦州</t>
+    <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%8A%A0%E7%B4%A2</t>
+  </si>
+  <si>
+    <t>高加索</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%9C%B0%E7%90%86%E7%B4%A2%E5%BC%95</t>
@@ -2700,6 +2748,12 @@
   </si>
   <si>
     <t>BIBSYS</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB%E6%AD%B7%E5%8F%B2%E8%BE%AD%E5%85%B8</t>
+  </si>
+  <si>
+    <t>瑞士歷史辭典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%B4%B2%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
@@ -3081,7 +3135,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I466"/>
+  <dimension ref="A1:I475"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4817,7 +4871,7 @@
         <v>114</v>
       </c>
       <c r="G60" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H60" t="s">
         <v>4</v>
@@ -6905,7 +6959,7 @@
         <v>256</v>
       </c>
       <c r="G132" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H132" t="s">
         <v>4</v>
@@ -7688,7 +7742,7 @@
         <v>308</v>
       </c>
       <c r="G159" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="H159" t="s">
         <v>4</v>
@@ -7746,7 +7800,7 @@
         <v>312</v>
       </c>
       <c r="G161" t="n">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="H161" t="s">
         <v>4</v>
@@ -7804,7 +7858,7 @@
         <v>316</v>
       </c>
       <c r="G163" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H163" t="s">
         <v>4</v>
@@ -8065,7 +8119,7 @@
         <v>334</v>
       </c>
       <c r="G172" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H172" t="s">
         <v>4</v>
@@ -8123,7 +8177,7 @@
         <v>338</v>
       </c>
       <c r="G174" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H174" t="s">
         <v>4</v>
@@ -8210,7 +8264,7 @@
         <v>344</v>
       </c>
       <c r="G177" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H177" t="s">
         <v>4</v>
@@ -8268,7 +8322,7 @@
         <v>348</v>
       </c>
       <c r="G179" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H179" t="s">
         <v>4</v>
@@ -8326,7 +8380,7 @@
         <v>352</v>
       </c>
       <c r="G181" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H181" t="s">
         <v>4</v>
@@ -8384,7 +8438,7 @@
         <v>356</v>
       </c>
       <c r="G183" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H183" t="s">
         <v>4</v>
@@ -8471,7 +8525,7 @@
         <v>362</v>
       </c>
       <c r="G186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H186" t="s">
         <v>4</v>
@@ -8529,7 +8583,7 @@
         <v>366</v>
       </c>
       <c r="G188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H188" t="s">
         <v>4</v>
@@ -8558,7 +8612,7 @@
         <v>368</v>
       </c>
       <c r="G189" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H189" t="s">
         <v>4</v>
@@ -8616,7 +8670,7 @@
         <v>372</v>
       </c>
       <c r="G191" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H191" t="s">
         <v>4</v>
@@ -8674,7 +8728,7 @@
         <v>376</v>
       </c>
       <c r="G193" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H193" t="s">
         <v>4</v>
@@ -8732,7 +8786,7 @@
         <v>380</v>
       </c>
       <c r="G195" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H195" t="s">
         <v>4</v>
@@ -8848,7 +8902,7 @@
         <v>388</v>
       </c>
       <c r="G199" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H199" t="s">
         <v>4</v>
@@ -8906,7 +8960,7 @@
         <v>392</v>
       </c>
       <c r="G201" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="H201" t="s">
         <v>4</v>
@@ -8964,7 +9018,7 @@
         <v>396</v>
       </c>
       <c r="G203" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="H203" t="s">
         <v>4</v>
@@ -9022,7 +9076,7 @@
         <v>400</v>
       </c>
       <c r="G205" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H205" t="s">
         <v>4</v>
@@ -9103,13 +9157,13 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>95</v>
+        <v>405</v>
       </c>
       <c r="F208" t="s">
-        <v>96</v>
+        <v>406</v>
       </c>
       <c r="G208" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H208" t="s">
         <v>4</v>
@@ -9132,10 +9186,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="F209" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -9161,13 +9215,13 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>407</v>
+        <v>95</v>
       </c>
       <c r="F210" t="s">
-        <v>408</v>
+        <v>96</v>
       </c>
       <c r="G210" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H210" t="s">
         <v>4</v>
@@ -9225,7 +9279,7 @@
         <v>412</v>
       </c>
       <c r="G212" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H212" t="s">
         <v>4</v>
@@ -9254,7 +9308,7 @@
         <v>414</v>
       </c>
       <c r="G213" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H213" t="s">
         <v>4</v>
@@ -9283,7 +9337,7 @@
         <v>416</v>
       </c>
       <c r="G214" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H214" t="s">
         <v>4</v>
@@ -9312,7 +9366,7 @@
         <v>418</v>
       </c>
       <c r="G215" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H215" t="s">
         <v>4</v>
@@ -9399,7 +9453,7 @@
         <v>424</v>
       </c>
       <c r="G218" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H218" t="s">
         <v>4</v>
@@ -9457,7 +9511,7 @@
         <v>428</v>
       </c>
       <c r="G220" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H220" t="s">
         <v>4</v>
@@ -9689,7 +9743,7 @@
         <v>444</v>
       </c>
       <c r="G228" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H228" t="s">
         <v>4</v>
@@ -9747,7 +9801,7 @@
         <v>448</v>
       </c>
       <c r="G230" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H230" t="s">
         <v>4</v>
@@ -10182,7 +10236,7 @@
         <v>478</v>
       </c>
       <c r="G245" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H245" t="s">
         <v>4</v>
@@ -10211,7 +10265,7 @@
         <v>480</v>
       </c>
       <c r="G246" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H246" t="s">
         <v>4</v>
@@ -10240,7 +10294,7 @@
         <v>482</v>
       </c>
       <c r="G247" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H247" t="s">
         <v>4</v>
@@ -10269,7 +10323,7 @@
         <v>484</v>
       </c>
       <c r="G248" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H248" t="s">
         <v>4</v>
@@ -10298,7 +10352,7 @@
         <v>486</v>
       </c>
       <c r="G249" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H249" t="s">
         <v>4</v>
@@ -10327,7 +10381,7 @@
         <v>488</v>
       </c>
       <c r="G250" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H250" t="s">
         <v>4</v>
@@ -10356,7 +10410,7 @@
         <v>490</v>
       </c>
       <c r="G251" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H251" t="s">
         <v>4</v>
@@ -10385,7 +10439,7 @@
         <v>492</v>
       </c>
       <c r="G252" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H252" t="s">
         <v>4</v>
@@ -10414,7 +10468,7 @@
         <v>494</v>
       </c>
       <c r="G253" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H253" t="s">
         <v>4</v>
@@ -10443,7 +10497,7 @@
         <v>496</v>
       </c>
       <c r="G254" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H254" t="s">
         <v>4</v>
@@ -10472,7 +10526,7 @@
         <v>498</v>
       </c>
       <c r="G255" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H255" t="s">
         <v>4</v>
@@ -10501,7 +10555,7 @@
         <v>500</v>
       </c>
       <c r="G256" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H256" t="s">
         <v>4</v>
@@ -10530,7 +10584,7 @@
         <v>502</v>
       </c>
       <c r="G257" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H257" t="s">
         <v>4</v>
@@ -10559,7 +10613,7 @@
         <v>504</v>
       </c>
       <c r="G258" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H258" t="s">
         <v>4</v>
@@ -10617,7 +10671,7 @@
         <v>508</v>
       </c>
       <c r="G260" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H260" t="s">
         <v>4</v>
@@ -10646,7 +10700,7 @@
         <v>510</v>
       </c>
       <c r="G261" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H261" t="s">
         <v>4</v>
@@ -10675,7 +10729,7 @@
         <v>512</v>
       </c>
       <c r="G262" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H262" t="s">
         <v>4</v>
@@ -10704,7 +10758,7 @@
         <v>514</v>
       </c>
       <c r="G263" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H263" t="s">
         <v>4</v>
@@ -10733,7 +10787,7 @@
         <v>516</v>
       </c>
       <c r="G264" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H264" t="s">
         <v>4</v>
@@ -10762,7 +10816,7 @@
         <v>518</v>
       </c>
       <c r="G265" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H265" t="s">
         <v>4</v>
@@ -10791,7 +10845,7 @@
         <v>520</v>
       </c>
       <c r="G266" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H266" t="s">
         <v>4</v>
@@ -10820,7 +10874,7 @@
         <v>522</v>
       </c>
       <c r="G267" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H267" t="s">
         <v>4</v>
@@ -10849,7 +10903,7 @@
         <v>524</v>
       </c>
       <c r="G268" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H268" t="s">
         <v>4</v>
@@ -10878,7 +10932,7 @@
         <v>526</v>
       </c>
       <c r="G269" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H269" t="s">
         <v>4</v>
@@ -10936,7 +10990,7 @@
         <v>530</v>
       </c>
       <c r="G271" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H271" t="s">
         <v>4</v>
@@ -10965,7 +11019,7 @@
         <v>532</v>
       </c>
       <c r="G272" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H272" t="s">
         <v>4</v>
@@ -10994,7 +11048,7 @@
         <v>534</v>
       </c>
       <c r="G273" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H273" t="s">
         <v>4</v>
@@ -11023,7 +11077,7 @@
         <v>536</v>
       </c>
       <c r="G274" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H274" t="s">
         <v>4</v>
@@ -11052,7 +11106,7 @@
         <v>538</v>
       </c>
       <c r="G275" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H275" t="s">
         <v>4</v>
@@ -11081,7 +11135,7 @@
         <v>540</v>
       </c>
       <c r="G276" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H276" t="s">
         <v>4</v>
@@ -11110,7 +11164,7 @@
         <v>542</v>
       </c>
       <c r="G277" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H277" t="s">
         <v>4</v>
@@ -11139,7 +11193,7 @@
         <v>544</v>
       </c>
       <c r="G278" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H278" t="s">
         <v>4</v>
@@ -11168,7 +11222,7 @@
         <v>546</v>
       </c>
       <c r="G279" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H279" t="s">
         <v>4</v>
@@ -11197,7 +11251,7 @@
         <v>548</v>
       </c>
       <c r="G280" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H280" t="s">
         <v>4</v>
@@ -11220,13 +11274,13 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>443</v>
+        <v>549</v>
       </c>
       <c r="F281" t="s">
-        <v>444</v>
+        <v>550</v>
       </c>
       <c r="G281" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H281" t="s">
         <v>4</v>
@@ -11249,13 +11303,13 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="F282" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="G282" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H282" t="s">
         <v>4</v>
@@ -11278,13 +11332,13 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="F283" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="G283" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H283" t="s">
         <v>4</v>
@@ -11307,13 +11361,13 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="F284" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="G284" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H284" t="s">
         <v>4</v>
@@ -11336,13 +11390,13 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="F285" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="G285" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H285" t="s">
         <v>4</v>
@@ -11365,13 +11419,13 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>193</v>
+        <v>559</v>
       </c>
       <c r="F286" t="s">
-        <v>194</v>
+        <v>560</v>
       </c>
       <c r="G286" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H286" t="s">
         <v>4</v>
@@ -11394,13 +11448,13 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="F287" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="G287" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H287" t="s">
         <v>4</v>
@@ -11423,13 +11477,13 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>559</v>
+        <v>115</v>
       </c>
       <c r="F288" t="s">
-        <v>560</v>
+        <v>116</v>
       </c>
       <c r="G288" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H288" t="s">
         <v>4</v>
@@ -11452,13 +11506,13 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="F289" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="G289" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H289" t="s">
         <v>4</v>
@@ -11481,13 +11535,13 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="F290" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="G290" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H290" t="s">
         <v>4</v>
@@ -11510,10 +11564,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="F291" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="G291" t="n">
         <v>3</v>
@@ -11539,13 +11593,13 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="F292" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="G292" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H292" t="s">
         <v>4</v>
@@ -11568,10 +11622,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>569</v>
+        <v>193</v>
       </c>
       <c r="F293" t="s">
-        <v>570</v>
+        <v>194</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -11603,7 +11657,7 @@
         <v>572</v>
       </c>
       <c r="G294" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H294" t="s">
         <v>4</v>
@@ -11632,7 +11686,7 @@
         <v>574</v>
       </c>
       <c r="G295" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H295" t="s">
         <v>4</v>
@@ -11661,7 +11715,7 @@
         <v>576</v>
       </c>
       <c r="G296" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H296" t="s">
         <v>4</v>
@@ -11690,7 +11744,7 @@
         <v>578</v>
       </c>
       <c r="G297" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H297" t="s">
         <v>4</v>
@@ -11719,7 +11773,7 @@
         <v>580</v>
       </c>
       <c r="G298" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H298" t="s">
         <v>4</v>
@@ -11835,7 +11889,7 @@
         <v>588</v>
       </c>
       <c r="G302" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H302" t="s">
         <v>4</v>
@@ -11864,7 +11918,7 @@
         <v>590</v>
       </c>
       <c r="G303" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H303" t="s">
         <v>4</v>
@@ -11893,7 +11947,7 @@
         <v>592</v>
       </c>
       <c r="G304" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H304" t="s">
         <v>4</v>
@@ -11922,7 +11976,7 @@
         <v>594</v>
       </c>
       <c r="G305" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H305" t="s">
         <v>4</v>
@@ -11980,7 +12034,7 @@
         <v>598</v>
       </c>
       <c r="G307" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H307" t="s">
         <v>4</v>
@@ -12009,7 +12063,7 @@
         <v>600</v>
       </c>
       <c r="G308" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H308" t="s">
         <v>4</v>
@@ -12125,7 +12179,7 @@
         <v>608</v>
       </c>
       <c r="G312" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H312" t="s">
         <v>4</v>
@@ -12212,7 +12266,7 @@
         <v>614</v>
       </c>
       <c r="G315" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H315" t="s">
         <v>4</v>
@@ -12241,7 +12295,7 @@
         <v>616</v>
       </c>
       <c r="G316" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H316" t="s">
         <v>4</v>
@@ -12328,7 +12382,7 @@
         <v>622</v>
       </c>
       <c r="G319" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H319" t="s">
         <v>4</v>
@@ -12357,7 +12411,7 @@
         <v>624</v>
       </c>
       <c r="G320" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H320" t="s">
         <v>4</v>
@@ -12386,7 +12440,7 @@
         <v>626</v>
       </c>
       <c r="G321" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H321" t="s">
         <v>4</v>
@@ -12415,7 +12469,7 @@
         <v>628</v>
       </c>
       <c r="G322" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H322" t="s">
         <v>4</v>
@@ -12502,7 +12556,7 @@
         <v>634</v>
       </c>
       <c r="G325" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H325" t="s">
         <v>4</v>
@@ -12531,7 +12585,7 @@
         <v>636</v>
       </c>
       <c r="G326" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H326" t="s">
         <v>4</v>
@@ -12560,7 +12614,7 @@
         <v>638</v>
       </c>
       <c r="G327" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H327" t="s">
         <v>4</v>
@@ -12589,7 +12643,7 @@
         <v>640</v>
       </c>
       <c r="G328" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H328" t="s">
         <v>4</v>
@@ -12618,7 +12672,7 @@
         <v>642</v>
       </c>
       <c r="G329" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H329" t="s">
         <v>4</v>
@@ -12647,7 +12701,7 @@
         <v>644</v>
       </c>
       <c r="G330" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H330" t="s">
         <v>4</v>
@@ -12734,7 +12788,7 @@
         <v>650</v>
       </c>
       <c r="G333" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H333" t="s">
         <v>4</v>
@@ -12763,7 +12817,7 @@
         <v>652</v>
       </c>
       <c r="G334" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H334" t="s">
         <v>4</v>
@@ -12873,10 +12927,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>581</v>
+        <v>659</v>
       </c>
       <c r="F338" t="s">
-        <v>582</v>
+        <v>660</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -12902,10 +12956,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="F339" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -12931,13 +12985,13 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="F340" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="G340" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H340" t="s">
         <v>4</v>
@@ -12960,10 +13014,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>587</v>
+        <v>665</v>
       </c>
       <c r="F341" t="s">
-        <v>588</v>
+        <v>666</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -12989,13 +13043,13 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="F342" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="G342" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H342" t="s">
         <v>4</v>
@@ -13018,10 +13072,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="F343" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -13047,10 +13101,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="F344" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -13076,10 +13130,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="F345" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -13105,10 +13159,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>671</v>
+        <v>595</v>
       </c>
       <c r="F346" t="s">
-        <v>672</v>
+        <v>596</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -13134,10 +13188,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="F347" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -13163,13 +13217,13 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="F348" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="G348" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H348" t="s">
         <v>4</v>
@@ -13192,13 +13246,13 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>677</v>
+        <v>601</v>
       </c>
       <c r="F349" t="s">
-        <v>678</v>
+        <v>602</v>
       </c>
       <c r="G349" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H349" t="s">
         <v>4</v>
@@ -13256,7 +13310,7 @@
         <v>682</v>
       </c>
       <c r="G351" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H351" t="s">
         <v>4</v>
@@ -13314,7 +13368,7 @@
         <v>686</v>
       </c>
       <c r="G353" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H353" t="s">
         <v>4</v>
@@ -13343,7 +13397,7 @@
         <v>688</v>
       </c>
       <c r="G354" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H354" t="s">
         <v>4</v>
@@ -13366,13 +13420,13 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>495</v>
+        <v>689</v>
       </c>
       <c r="F355" t="s">
-        <v>496</v>
+        <v>690</v>
       </c>
       <c r="G355" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H355" t="s">
         <v>4</v>
@@ -13395,13 +13449,13 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="F356" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="G356" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H356" t="s">
         <v>4</v>
@@ -13424,10 +13478,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="F357" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="G357" t="n">
         <v>2</v>
@@ -13453,10 +13507,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="F358" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="G358" t="n">
         <v>2</v>
@@ -13482,13 +13536,13 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="F359" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="G359" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H359" t="s">
         <v>4</v>
@@ -13511,13 +13565,13 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="F360" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="G360" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H360" t="s">
         <v>4</v>
@@ -13540,10 +13594,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="F361" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="G361" t="n">
         <v>2</v>
@@ -13569,10 +13623,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="F362" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="G362" t="n">
         <v>2</v>
@@ -13598,13 +13652,13 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>703</v>
+        <v>499</v>
       </c>
       <c r="F363" t="s">
-        <v>704</v>
+        <v>500</v>
       </c>
       <c r="G363" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H363" t="s">
         <v>4</v>
@@ -13627,13 +13681,13 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>555</v>
+        <v>705</v>
       </c>
       <c r="F364" t="s">
-        <v>556</v>
+        <v>706</v>
       </c>
       <c r="G364" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H364" t="s">
         <v>4</v>
@@ -13656,10 +13710,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="F365" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="G365" t="n">
         <v>2</v>
@@ -13685,13 +13739,13 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="F366" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="G366" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H366" t="s">
         <v>4</v>
@@ -13714,13 +13768,13 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="F367" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="G367" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H367" t="s">
         <v>4</v>
@@ -13743,10 +13797,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="F368" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -13772,13 +13826,13 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="F369" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="G369" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H369" t="s">
         <v>4</v>
@@ -13801,10 +13855,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="F370" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="G370" t="n">
         <v>2</v>
@@ -13830,10 +13884,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="F371" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -13859,13 +13913,13 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>719</v>
+        <v>569</v>
       </c>
       <c r="F372" t="s">
-        <v>720</v>
+        <v>570</v>
       </c>
       <c r="G372" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H372" t="s">
         <v>4</v>
@@ -13894,7 +13948,7 @@
         <v>722</v>
       </c>
       <c r="G373" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H373" t="s">
         <v>4</v>
@@ -13952,7 +14006,7 @@
         <v>726</v>
       </c>
       <c r="G375" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H375" t="s">
         <v>4</v>
@@ -14010,7 +14064,7 @@
         <v>730</v>
       </c>
       <c r="G377" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H377" t="s">
         <v>4</v>
@@ -14039,7 +14093,7 @@
         <v>732</v>
       </c>
       <c r="G378" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H378" t="s">
         <v>4</v>
@@ -14068,7 +14122,7 @@
         <v>734</v>
       </c>
       <c r="G379" t="n">
-        <v>143</v>
+        <v>1</v>
       </c>
       <c r="H379" t="s">
         <v>4</v>
@@ -14097,7 +14151,7 @@
         <v>736</v>
       </c>
       <c r="G380" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H380" t="s">
         <v>4</v>
@@ -14242,7 +14296,7 @@
         <v>746</v>
       </c>
       <c r="G385" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H385" t="s">
         <v>4</v>
@@ -14300,7 +14354,7 @@
         <v>750</v>
       </c>
       <c r="G387" t="n">
-        <v>1</v>
+        <v>143</v>
       </c>
       <c r="H387" t="s">
         <v>4</v>
@@ -14561,7 +14615,7 @@
         <v>768</v>
       </c>
       <c r="G396" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H396" t="s">
         <v>4</v>
@@ -14590,7 +14644,7 @@
         <v>770</v>
       </c>
       <c r="G397" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H397" t="s">
         <v>4</v>
@@ -14822,7 +14876,7 @@
         <v>786</v>
       </c>
       <c r="G405" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H405" t="s">
         <v>4</v>
@@ -15054,7 +15108,7 @@
         <v>802</v>
       </c>
       <c r="G413" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H413" t="s">
         <v>4</v>
@@ -15193,10 +15247,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
-        <v>483</v>
+        <v>811</v>
       </c>
       <c r="F418" t="s">
-        <v>484</v>
+        <v>812</v>
       </c>
       <c r="G418" t="n">
         <v>1</v>
@@ -15222,10 +15276,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="F419" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="G419" t="n">
         <v>1</v>
@@ -15251,10 +15305,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="F420" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="G420" t="n">
         <v>1</v>
@@ -15280,13 +15334,13 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="F421" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="G421" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H421" t="s">
         <v>4</v>
@@ -15309,10 +15363,10 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="F422" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="G422" t="n">
         <v>1</v>
@@ -15338,10 +15392,10 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="F423" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="G423" t="n">
         <v>1</v>
@@ -15367,10 +15421,10 @@
         <v>423</v>
       </c>
       <c r="E424" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="F424" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="G424" t="n">
         <v>1</v>
@@ -15396,10 +15450,10 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="F425" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="G425" t="n">
         <v>1</v>
@@ -15425,10 +15479,10 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
-        <v>825</v>
+        <v>487</v>
       </c>
       <c r="F426" t="s">
-        <v>826</v>
+        <v>488</v>
       </c>
       <c r="G426" t="n">
         <v>1</v>
@@ -16214,7 +16268,7 @@
         <v>880</v>
       </c>
       <c r="G453" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H453" t="s">
         <v>4</v>
@@ -16446,7 +16500,7 @@
         <v>896</v>
       </c>
       <c r="G461" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H461" t="s">
         <v>4</v>
@@ -16562,7 +16616,7 @@
         <v>904</v>
       </c>
       <c r="G465" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H465" t="s">
         <v>4</v>
@@ -16585,10 +16639,10 @@
         <v>465</v>
       </c>
       <c r="E466" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="F466" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="G466" t="n">
         <v>1</v>
@@ -16597,6 +16651,267 @@
         <v>4</v>
       </c>
       <c r="I466" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="467" spans="1:9">
+      <c r="A467" s="1" t="n">
+        <v>465</v>
+      </c>
+      <c r="B467" t="s">
+        <v>0</v>
+      </c>
+      <c r="C467" t="s">
+        <v>1</v>
+      </c>
+      <c r="D467" t="n">
+        <v>466</v>
+      </c>
+      <c r="E467" t="s">
+        <v>907</v>
+      </c>
+      <c r="F467" t="s">
+        <v>908</v>
+      </c>
+      <c r="G467" t="n">
+        <v>1</v>
+      </c>
+      <c r="H467" t="s">
+        <v>4</v>
+      </c>
+      <c r="I467" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="468" spans="1:9">
+      <c r="A468" s="1" t="n">
+        <v>466</v>
+      </c>
+      <c r="B468" t="s">
+        <v>0</v>
+      </c>
+      <c r="C468" t="s">
+        <v>1</v>
+      </c>
+      <c r="D468" t="n">
+        <v>467</v>
+      </c>
+      <c r="E468" t="s">
+        <v>909</v>
+      </c>
+      <c r="F468" t="s">
+        <v>910</v>
+      </c>
+      <c r="G468" t="n">
+        <v>1</v>
+      </c>
+      <c r="H468" t="s">
+        <v>4</v>
+      </c>
+      <c r="I468" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="469" spans="1:9">
+      <c r="A469" s="1" t="n">
+        <v>467</v>
+      </c>
+      <c r="B469" t="s">
+        <v>0</v>
+      </c>
+      <c r="C469" t="s">
+        <v>1</v>
+      </c>
+      <c r="D469" t="n">
+        <v>468</v>
+      </c>
+      <c r="E469" t="s">
+        <v>911</v>
+      </c>
+      <c r="F469" t="s">
+        <v>912</v>
+      </c>
+      <c r="G469" t="n">
+        <v>1</v>
+      </c>
+      <c r="H469" t="s">
+        <v>4</v>
+      </c>
+      <c r="I469" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="470" spans="1:9">
+      <c r="A470" s="1" t="n">
+        <v>468</v>
+      </c>
+      <c r="B470" t="s">
+        <v>0</v>
+      </c>
+      <c r="C470" t="s">
+        <v>1</v>
+      </c>
+      <c r="D470" t="n">
+        <v>469</v>
+      </c>
+      <c r="E470" t="s">
+        <v>913</v>
+      </c>
+      <c r="F470" t="s">
+        <v>914</v>
+      </c>
+      <c r="G470" t="n">
+        <v>1</v>
+      </c>
+      <c r="H470" t="s">
+        <v>4</v>
+      </c>
+      <c r="I470" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="471" spans="1:9">
+      <c r="A471" s="1" t="n">
+        <v>469</v>
+      </c>
+      <c r="B471" t="s">
+        <v>0</v>
+      </c>
+      <c r="C471" t="s">
+        <v>1</v>
+      </c>
+      <c r="D471" t="n">
+        <v>470</v>
+      </c>
+      <c r="E471" t="s">
+        <v>915</v>
+      </c>
+      <c r="F471" t="s">
+        <v>916</v>
+      </c>
+      <c r="G471" t="n">
+        <v>1</v>
+      </c>
+      <c r="H471" t="s">
+        <v>4</v>
+      </c>
+      <c r="I471" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="472" spans="1:9">
+      <c r="A472" s="1" t="n">
+        <v>470</v>
+      </c>
+      <c r="B472" t="s">
+        <v>0</v>
+      </c>
+      <c r="C472" t="s">
+        <v>1</v>
+      </c>
+      <c r="D472" t="n">
+        <v>471</v>
+      </c>
+      <c r="E472" t="s">
+        <v>917</v>
+      </c>
+      <c r="F472" t="s">
+        <v>918</v>
+      </c>
+      <c r="G472" t="n">
+        <v>1</v>
+      </c>
+      <c r="H472" t="s">
+        <v>4</v>
+      </c>
+      <c r="I472" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="473" spans="1:9">
+      <c r="A473" s="1" t="n">
+        <v>471</v>
+      </c>
+      <c r="B473" t="s">
+        <v>0</v>
+      </c>
+      <c r="C473" t="s">
+        <v>1</v>
+      </c>
+      <c r="D473" t="n">
+        <v>472</v>
+      </c>
+      <c r="E473" t="s">
+        <v>919</v>
+      </c>
+      <c r="F473" t="s">
+        <v>920</v>
+      </c>
+      <c r="G473" t="n">
+        <v>1</v>
+      </c>
+      <c r="H473" t="s">
+        <v>4</v>
+      </c>
+      <c r="I473" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="474" spans="1:9">
+      <c r="A474" s="1" t="n">
+        <v>472</v>
+      </c>
+      <c r="B474" t="s">
+        <v>0</v>
+      </c>
+      <c r="C474" t="s">
+        <v>1</v>
+      </c>
+      <c r="D474" t="n">
+        <v>473</v>
+      </c>
+      <c r="E474" t="s">
+        <v>921</v>
+      </c>
+      <c r="F474" t="s">
+        <v>922</v>
+      </c>
+      <c r="G474" t="n">
+        <v>11</v>
+      </c>
+      <c r="H474" t="s">
+        <v>4</v>
+      </c>
+      <c r="I474" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="475" spans="1:9">
+      <c r="A475" s="1" t="n">
+        <v>473</v>
+      </c>
+      <c r="B475" t="s">
+        <v>0</v>
+      </c>
+      <c r="C475" t="s">
+        <v>1</v>
+      </c>
+      <c r="D475" t="n">
+        <v>474</v>
+      </c>
+      <c r="E475" t="s">
+        <v>921</v>
+      </c>
+      <c r="F475" t="s">
+        <v>923</v>
+      </c>
+      <c r="G475" t="n">
+        <v>1</v>
+      </c>
+      <c r="H475" t="s">
+        <v>4</v>
+      </c>
+      <c r="I475" t="n">
         <v>3</v>
       </c>
     </row>
